--- a/ResultadoEleicoesDistritos/GUARDA_CELORICO DA BEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_CELORICO DA BEIRA.xlsx
@@ -597,25 +597,25 @@
         <v>2121</v>
       </c>
       <c r="H2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J2" t="n">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M2" t="n">
         <v>16</v>
       </c>
       <c r="N2" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -630,31 +630,31 @@
         <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="T2" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>1414</v>
+        <v>1344</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1395</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1371</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
